--- a/02_MasterWifoMannheim/99_Backup/Course82.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course82.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2B59D2BFD3D0DB4B639A20115988B8756DC5FB30" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5F9E5C5-290B-4CF1-9034-688783EA53BB}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D05905DB9B361159F688B3420BFA5C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AD4C90B-38B0-46A3-AFFE-B845CE5155AC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3735" yWindow="3210" windowWidth="21600" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,9 @@
     <t>Voraussetzungen</t>
   </si>
   <si>
+    <t>and Insurance (FIN), Mathematical and Statistical Foundations (MSF)</t>
+  </si>
+  <si>
     <t>Anmeldepflicht</t>
   </si>
   <si>
@@ -82,10 +85,7 @@
     <t>1 Semester</t>
   </si>
   <si>
-    <t>Angebotsturnus</t>
-  </si>
-  <si>
-    <t>FSS und HWS</t>
+    <t>Offering</t>
   </si>
   <si>
     <t>Sprache</t>
@@ -109,7 +109,7 @@
     <t>M.Sc. MMM, M.Sc. MMBR (FSS), M.Sc. Wipäd, M.Sc. Wirt.Inf., M.Sc. Wirt.Math., M.Sc. VWL</t>
   </si>
   <si>
-    <t>and Insurance (FIN), Mathematical and Statistical Foundations (MSF)</t>
+    <t>Continuously</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,68 +518,68 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
